--- a/[Result]paper/Fig1_Table.xlsx
+++ b/[Result]paper/Fig1_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\[논문] 태양광 공급곡선\SupplyCurvePV\[Result]paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899C2A7-81E0-4955-AFEF-94AF37D756A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BC4EF-75D8-47D3-A645-913D6CB13A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{D3A2FEDB-8579-4DD4-802E-E79453A8F1A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D3A2FEDB-8579-4DD4-802E-E79453A8F1A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig1_Table" sheetId="1" r:id="rId1"/>
@@ -135,8 +135,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -727,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,33 +736,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2255,34 +2247,33 @@
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3" t="s">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
+      <c r="M32" s="7"/>
+      <c r="N32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="8" t="s">
+      <c r="O32" s="7"/>
+      <c r="S32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8" t="s">
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8" t="s">
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="9:36" x14ac:dyDescent="0.3">
       <c r="J33" t="s">
@@ -2303,32 +2294,31 @@
       <c r="O33" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7" t="s">
+      <c r="S33" t="s">
         <v>20</v>
       </c>
-      <c r="T33" s="7" t="s">
+      <c r="T33" t="s">
         <v>21</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="U33" t="s">
         <v>26</v>
       </c>
-      <c r="V33" s="7" t="s">
+      <c r="V33" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="7" t="s">
+      <c r="W33" t="s">
         <v>21</v>
       </c>
-      <c r="X33" s="7" t="s">
+      <c r="X33" t="s">
         <v>26</v>
       </c>
-      <c r="Y33" s="7" t="s">
+      <c r="Y33" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="7" t="s">
+      <c r="Z33" t="s">
         <v>21</v>
       </c>
-      <c r="AA33" s="7" t="s">
+      <c r="AA33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2354,59 +2344,59 @@
       <c r="O34" s="1">
         <v>4.0237426534796201</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" t="s">
         <v>18</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="4">
         <v>38.695452314594398</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="4">
         <v>44.6573561549083</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="4">
         <v>15.4072468047244</v>
       </c>
-      <c r="V34" s="9">
+      <c r="V34" s="4">
         <v>2.91687711085117</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="4">
         <v>3.3662875663105201</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="4">
         <v>15.4072468047244</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y34" s="4">
         <v>3.49494347227873</v>
       </c>
-      <c r="Z34" s="9">
+      <c r="Z34" s="4">
         <v>4.0237426534796201</v>
       </c>
-      <c r="AA34" s="9">
+      <c r="AA34" s="4">
         <v>15.130407269680701</v>
       </c>
-      <c r="AC34" s="10">
+      <c r="AC34" s="5">
         <f>S34/S$43</f>
         <v>5.6700790424624885E-2</v>
       </c>
-      <c r="AD34" s="10">
+      <c r="AD34" s="5">
         <f>T34/T$43</f>
         <v>3.667650090788744E-2</v>
       </c>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="10">
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="5">
         <f>V34/V$43</f>
         <v>0.32535899418061714</v>
       </c>
-      <c r="AG34" s="10">
+      <c r="AG34" s="5">
         <f>W34/W$43</f>
         <v>0.27121994259398174</v>
       </c>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="10">
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="5">
         <f>Y34/Y$43</f>
         <v>0.32138526050056737</v>
       </c>
-      <c r="AJ34" s="10">
+      <c r="AJ34" s="5">
         <f>Z34/Z$43</f>
         <v>0.26830602939285486</v>
       </c>
@@ -2433,59 +2423,59 @@
       <c r="O35" s="1">
         <v>2.3332245531585301</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="4">
         <v>21.759328572038498</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="4">
         <v>25.293157075258598</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="4">
         <v>16.240521813532101</v>
       </c>
-      <c r="V35" s="9">
+      <c r="V35" s="4">
         <v>1.6402260126917001</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="4">
         <v>1.9066072760741299</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X35" s="4">
         <v>16.240521813532101</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Y35" s="4">
         <v>2.0024943460287501</v>
       </c>
-      <c r="Z35" s="9">
+      <c r="Z35" s="4">
         <v>2.3332245531585301</v>
       </c>
-      <c r="AA35" s="9">
+      <c r="AA35" s="4">
         <v>16.515912156539699</v>
       </c>
-      <c r="AC35" s="10">
+      <c r="AC35" s="5">
         <f t="shared" ref="AC35:AD42" si="0">S35/S$43</f>
         <v>3.1884137678844945E-2</v>
       </c>
-      <c r="AD35" s="10">
+      <c r="AD35" s="5">
         <f t="shared" si="0"/>
         <v>2.077293817431021E-2</v>
       </c>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="10">
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="5">
         <f t="shared" ref="AF35:AF42" si="1">V35/V$43</f>
         <v>0.18295672578490235</v>
       </c>
-      <c r="AG35" s="10">
+      <c r="AG35" s="5">
         <f t="shared" ref="AG35:AG42" si="2">W35/W$43</f>
         <v>0.15361430233747092</v>
       </c>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="10">
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="5">
         <f t="shared" ref="AI35:AI42" si="3">Y35/Y$43</f>
         <v>0.18414379864912356</v>
       </c>
-      <c r="AJ35" s="10">
+      <c r="AJ35" s="5">
         <f t="shared" ref="AJ35:AJ42" si="4">Z35/Z$43</f>
         <v>0.15558107698525903</v>
       </c>
@@ -2512,59 +2502,59 @@
       <c r="O36" s="1">
         <v>0.49233608330942202</v>
       </c>
-      <c r="R36" s="7" t="s">
+      <c r="R36" t="s">
         <v>16</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="4">
         <v>3.1530910777683698</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="4">
         <v>5.4507169481619897</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="4">
         <v>72.868997873026402</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="4">
         <v>0.23768113933385401</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="4">
         <v>0.41087700369962499</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="4">
         <v>72.868997873026402</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="4">
         <v>0.28507901167245098</v>
       </c>
-      <c r="Z36" s="9">
+      <c r="Z36" s="4">
         <v>0.49233608330942202</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="4">
         <v>72.701624164147006</v>
       </c>
-      <c r="AC36" s="10">
+      <c r="AC36" s="5">
         <f t="shared" si="0"/>
         <v>4.620252399087971E-3</v>
       </c>
-      <c r="AD36" s="10">
+      <c r="AD36" s="5">
         <f t="shared" si="0"/>
         <v>4.4766023408201287E-3</v>
       </c>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="10">
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="5">
         <f t="shared" si="1"/>
         <v>2.6511811602100647E-2</v>
       </c>
-      <c r="AG36" s="10">
+      <c r="AG36" s="5">
         <f t="shared" si="2"/>
         <v>3.3104134795809065E-2</v>
       </c>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="10">
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="5">
         <f t="shared" si="3"/>
         <v>2.6215071332715396E-2</v>
       </c>
-      <c r="AJ36" s="10">
+      <c r="AJ36" s="5">
         <f t="shared" si="4"/>
         <v>3.2829321111117096E-2</v>
       </c>
@@ -2591,59 +2581,59 @@
       <c r="O37" s="1">
         <v>0.507664670720404</v>
       </c>
-      <c r="R37" s="7" t="s">
+      <c r="R37" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="4">
         <v>4.3783818223611899</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="4">
         <v>5.6187375152465497</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U37" s="4">
         <v>28.3290892208313</v>
       </c>
-      <c r="V37" s="9">
+      <c r="V37" s="4">
         <v>0.33004399629140402</v>
       </c>
-      <c r="W37" s="9">
+      <c r="W37" s="4">
         <v>0.42354245446879202</v>
       </c>
-      <c r="X37" s="9">
+      <c r="X37" s="4">
         <v>28.3290892208313</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y37" s="4">
         <v>0.39600371709881599</v>
       </c>
-      <c r="Z37" s="9">
+      <c r="Z37" s="4">
         <v>0.507664670720404</v>
       </c>
-      <c r="AA37" s="9">
+      <c r="AA37" s="4">
         <v>28.1969458366788</v>
       </c>
-      <c r="AC37" s="10">
+      <c r="AC37" s="5">
         <f t="shared" si="0"/>
         <v>6.4156818245811277E-3</v>
       </c>
-      <c r="AD37" s="10">
+      <c r="AD37" s="5">
         <f t="shared" si="0"/>
         <v>4.6145954288982572E-3</v>
       </c>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="10">
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="5">
         <f t="shared" si="1"/>
         <v>3.6814297821887776E-2</v>
       </c>
-      <c r="AG37" s="10">
+      <c r="AG37" s="5">
         <f t="shared" si="2"/>
         <v>3.4124583216472458E-2</v>
       </c>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="10">
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="5">
         <f t="shared" si="3"/>
         <v>3.6415398071092432E-2</v>
       </c>
-      <c r="AJ37" s="10">
+      <c r="AJ37" s="5">
         <f t="shared" si="4"/>
         <v>3.3851442250222574E-2</v>
       </c>
@@ -2670,59 +2660,59 @@
       <c r="O38" s="1">
         <v>2.9851984708999</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="4">
         <v>290.60439389999999</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="4">
         <v>571.08477789999995</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U38" s="4">
         <v>96.516222702577707</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V38" s="4">
         <v>1.26349736478261</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="4">
         <v>2.4829772952173901</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="4">
         <v>96.516222702577707</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="4">
         <v>1.5413830832914699</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Z38" s="4">
         <v>2.9851984708999</v>
       </c>
-      <c r="AA38" s="9">
+      <c r="AA38" s="4">
         <v>93.670120248452804</v>
       </c>
-      <c r="AC38" s="10">
+      <c r="AC38" s="5">
         <f t="shared" si="0"/>
         <v>0.42582520294728216</v>
       </c>
-      <c r="AD38" s="10">
+      <c r="AD38" s="5">
         <f t="shared" si="0"/>
         <v>0.46902443804497218</v>
       </c>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="10">
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="5">
         <f t="shared" si="1"/>
         <v>0.14093505352907054</v>
       </c>
-      <c r="AG38" s="10">
+      <c r="AG38" s="5">
         <f t="shared" si="2"/>
         <v>0.2000521186040885</v>
       </c>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="10">
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="5">
         <f t="shared" si="3"/>
         <v>0.1417412921508017</v>
       </c>
-      <c r="AJ38" s="10">
+      <c r="AJ38" s="5">
         <f t="shared" si="4"/>
         <v>0.19905516273117951</v>
       </c>
@@ -2749,59 +2739,59 @@
       <c r="O39" s="1">
         <v>2.6535620367983799</v>
       </c>
-      <c r="R39" s="7" t="s">
+      <c r="R39" t="s">
         <v>13</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="4">
         <v>266.58718527871798</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="4">
         <v>498.67939555505001</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="4">
         <v>87.0605276970375</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V39" s="4">
         <v>1.1590747186031201</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W39" s="4">
         <v>2.1681712850219501</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X39" s="4">
         <v>87.0605276970375</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Y39" s="4">
         <v>1.43586533970293</v>
       </c>
-      <c r="Z39" s="9">
+      <c r="Z39" s="4">
         <v>2.6535620367983799</v>
       </c>
-      <c r="AA39" s="9">
+      <c r="AA39" s="4">
         <v>84.805772757728306</v>
       </c>
-      <c r="AC39" s="10">
+      <c r="AC39" s="5">
         <f t="shared" si="0"/>
         <v>0.39063257355123837</v>
       </c>
-      <c r="AD39" s="10">
+      <c r="AD39" s="5">
         <f t="shared" si="0"/>
         <v>0.40955884715556123</v>
       </c>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="10">
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="5">
         <f t="shared" si="1"/>
         <v>0.12928737491955822</v>
       </c>
-      <c r="AG39" s="10">
+      <c r="AG39" s="5">
         <f t="shared" si="2"/>
         <v>0.17468837105383783</v>
       </c>
-      <c r="AH39" s="11"/>
-      <c r="AI39" s="10">
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="5">
         <f t="shared" si="3"/>
         <v>0.13203817455258654</v>
       </c>
-      <c r="AJ39" s="10">
+      <c r="AJ39" s="5">
         <f t="shared" si="4"/>
         <v>0.17694140882128756</v>
       </c>
@@ -2828,59 +2818,59 @@
       <c r="O40" s="1">
         <v>0.26026814325270697</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" t="s">
         <v>12</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="4">
         <v>6.8653513094502197</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="4">
         <v>8.74198029919134</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="4">
         <v>27.334784560229501</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="4">
         <v>0.16954432798990099</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="4">
         <v>0.21588890478003001</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="4">
         <v>27.334784560229501</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="4">
         <v>0.20483007903151301</v>
       </c>
-      <c r="Z40" s="9">
+      <c r="Z40" s="4">
         <v>0.26026814325270697</v>
       </c>
-      <c r="AA40" s="9">
+      <c r="AA40" s="4">
         <v>27.065392194016901</v>
       </c>
-      <c r="AC40" s="10">
+      <c r="AC40" s="5">
         <f t="shared" si="0"/>
         <v>1.0059860332521384E-2</v>
       </c>
-      <c r="AD40" s="10">
+      <c r="AD40" s="5">
         <f t="shared" si="0"/>
         <v>7.1796737645604056E-3</v>
       </c>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="10">
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="5">
         <f t="shared" si="1"/>
         <v>1.8911585893903453E-2</v>
       </c>
-      <c r="AG40" s="10">
+      <c r="AG40" s="5">
         <f t="shared" si="2"/>
         <v>1.7394050629278925E-2</v>
       </c>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="10">
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="5">
         <f t="shared" si="3"/>
         <v>1.8835603159261787E-2</v>
       </c>
-      <c r="AJ40" s="10">
+      <c r="AJ40" s="5">
         <f t="shared" si="4"/>
         <v>1.7354865384642881E-2</v>
       </c>
@@ -2907,59 +2897,59 @@
       <c r="O41" s="1">
         <v>3.3582102992226803E-2</v>
       </c>
-      <c r="R41" s="7" t="s">
+      <c r="R41" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="9">
+      <c r="S41" s="4">
         <v>1.4022375</v>
       </c>
-      <c r="T41" s="9">
+      <c r="T41" s="4">
         <v>1.702213</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="4">
         <v>21.3926314194279</v>
       </c>
-      <c r="V41" s="9">
+      <c r="V41" s="4">
         <v>2.3045468478260899E-2</v>
       </c>
-      <c r="W41" s="9">
+      <c r="W41" s="4">
         <v>2.7975500608695601E-2</v>
       </c>
-      <c r="X41" s="9">
+      <c r="X41" s="4">
         <v>21.3926314194279</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="Y41" s="4">
         <v>2.7650527268791299E-2</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="Z41" s="4">
         <v>3.3582102992226803E-2</v>
       </c>
-      <c r="AA41" s="9">
+      <c r="AA41" s="4">
         <v>21.451944354530799</v>
       </c>
-      <c r="AC41" s="10">
+      <c r="AC41" s="5">
         <f t="shared" si="0"/>
         <v>2.0547110799131988E-3</v>
       </c>
-      <c r="AD41" s="10">
+      <c r="AD41" s="5">
         <f t="shared" si="0"/>
         <v>1.3980052115793687E-3</v>
       </c>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="10">
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="5">
         <f t="shared" si="1"/>
         <v>2.5705746795483225E-3</v>
       </c>
-      <c r="AG41" s="10">
+      <c r="AG41" s="5">
         <f t="shared" si="2"/>
         <v>2.253970737694374E-3</v>
       </c>
-      <c r="AH41" s="11"/>
-      <c r="AI41" s="10">
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="5">
         <f t="shared" si="3"/>
         <v>2.5426654192677073E-3</v>
       </c>
-      <c r="AJ41" s="10">
+      <c r="AJ41" s="5">
         <f t="shared" si="4"/>
         <v>2.2392785743179785E-3</v>
       </c>
@@ -2986,59 +2976,59 @@
       <c r="O42" s="1">
         <v>1.7072615076711</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" t="s">
         <v>6</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="4">
         <v>49.004541000000003</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="4">
         <v>56.372992000000004</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="4">
         <v>15.036261639508099</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="4">
         <v>1.225113525</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="4">
         <v>1.4093248</v>
       </c>
-      <c r="X42" s="9">
+      <c r="X42" s="4">
         <v>15.036261639508099</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Y42" s="4">
         <v>1.4863731951726</v>
       </c>
-      <c r="Z42" s="9">
+      <c r="Z42" s="4">
         <v>1.7072615076711</v>
       </c>
-      <c r="AA42" s="9">
+      <c r="AA42" s="4">
         <v>14.8608918147807</v>
       </c>
-      <c r="AC42" s="10">
+      <c r="AC42" s="5">
         <f t="shared" si="0"/>
         <v>7.1806789761905979E-2</v>
       </c>
-      <c r="AD42" s="10">
+      <c r="AD42" s="5">
         <f t="shared" si="0"/>
         <v>4.6298398971410783E-2</v>
       </c>
-      <c r="AE42" s="11"/>
-      <c r="AF42" s="10">
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="5">
         <f t="shared" si="1"/>
         <v>0.13665358158841151</v>
       </c>
-      <c r="AG42" s="10">
+      <c r="AG42" s="5">
         <f t="shared" si="2"/>
         <v>0.1135485260313663</v>
       </c>
-      <c r="AH42" s="11"/>
-      <c r="AI42" s="10">
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="5">
         <f t="shared" si="3"/>
         <v>0.13668273616458343</v>
       </c>
-      <c r="AJ42" s="10">
+      <c r="AJ42" s="5">
         <f t="shared" si="4"/>
         <v>0.11384141474911845</v>
       </c>
@@ -3068,38 +3058,37 @@
         <f t="shared" si="5"/>
         <v>14.996840222282291</v>
       </c>
-      <c r="R43" s="7"/>
-      <c r="S43" s="9">
+      <c r="S43" s="4">
         <f>SUM(S34:S42)</f>
         <v>682.44996277493067</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T43" s="4">
         <f>SUM(T34:T42)</f>
         <v>1217.6013264478167</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U43" s="4">
         <v>78.416205269744594</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V43" s="4">
         <f>SUM(V34:V42)</f>
         <v>8.9651036640220205</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W43" s="4">
         <f>SUM(W34:W42)</f>
         <v>12.411652086181132</v>
       </c>
-      <c r="X43" s="9">
+      <c r="X43" s="4">
         <v>38.444044277931802</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Y43" s="4">
         <f>SUM(Y34:Y42)</f>
         <v>10.874622771546052</v>
       </c>
-      <c r="Z43" s="9">
+      <c r="Z43" s="4">
         <f>SUM(Z34:Z42)</f>
         <v>14.996840222282291</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AA43" s="4">
         <v>37.9067627202868</v>
       </c>
     </row>
@@ -3379,7 +3368,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="S58" s="6"/>
+      <c r="S58" s="3"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -3412,10 +3401,10 @@
         <f>SUM(N56:N57)</f>
         <v>5.7</v>
       </c>
-      <c r="S59" s="6"/>
+      <c r="S59" s="3"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N60" s="4">
+      <c r="N60" s="3">
         <f>(N59-M59)/M59</f>
         <v>0.9655172413793105</v>
       </c>
@@ -3950,7 +3939,7 @@
   <dimension ref="C10:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4004,51 +3993,51 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>38.695452314594398</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>44.6573561549083</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>15.4072468047244</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>2.91687711085117</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>3.3662875663105201</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>15.4072468047244</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>3.49494347227873</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>4.0237426534796201</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>15.130407269680701</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="5">
         <v>5.6700790424624885E-2</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="5">
         <v>3.667650090788744E-2</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
         <v>0.32535899418061714</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="5">
         <v>0.27121994259398174</v>
       </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
         <v>0.32138526050056737</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="5">
         <v>0.26830602939285486</v>
       </c>
     </row>
@@ -4056,51 +4045,51 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>21.759328572038498</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>25.293157075258598</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>16.240521813532101</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>1.6402260126917001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1.9066072760741299</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>16.240521813532101</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>2.0024943460287501</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>2.3332245531585301</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>16.515912156539699</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="5">
         <v>3.1884137678844945E-2</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="5">
         <v>2.077293817431021E-2</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5">
         <v>0.18295672578490235</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="5">
         <v>0.15361430233747092</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
         <v>0.18414379864912356</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="5">
         <v>0.15558107698525903</v>
       </c>
     </row>
@@ -4108,51 +4097,51 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>3.1530910777683698</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>5.4507169481619897</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>72.868997873026402</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.23768113933385401</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.41087700369962499</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>72.868997873026402</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.28507901167245098</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.49233608330942202</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>72.701624164147006</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="5">
         <v>4.620252399087971E-3</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="5">
         <v>4.4766023408201287E-3</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
         <v>2.6511811602100647E-2</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="5">
         <v>3.3104134795809065E-2</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
         <v>2.6215071332715396E-2</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="5">
         <v>3.2829321111117096E-2</v>
       </c>
     </row>
@@ -4160,51 +4149,51 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>4.3783818223611899</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>5.6187375152465497</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>28.3290892208313</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.33004399629140402</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0.42354245446879202</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>28.3290892208313</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>0.39600371709881599</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>0.507664670720404</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>28.1969458366788</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="5">
         <v>6.4156818245811277E-3</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="5">
         <v>4.6145954288982572E-3</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5">
         <v>3.6814297821887776E-2</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="5">
         <v>3.4124583216472458E-2</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
         <v>3.6415398071092432E-2</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="5">
         <v>3.3851442250222574E-2</v>
       </c>
     </row>
@@ -4212,51 +4201,51 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>290.60439389999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>571.08477789999995</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>96.516222702577707</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>1.26349736478261</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>2.4829772952173901</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>96.516222702577707</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>1.5413830832914699</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>2.9851984708999</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>93.670120248452804</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="5">
         <v>0.42582520294728216</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="5">
         <v>0.46902443804497218</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5">
         <v>0.14093505352907054</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="5">
         <v>0.2000521186040885</v>
       </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
         <v>0.1417412921508017</v>
       </c>
-      <c r="U16" s="10">
+      <c r="U16" s="5">
         <v>0.19905516273117951</v>
       </c>
     </row>
@@ -4264,51 +4253,51 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>266.58718527871798</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>498.67939555505001</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>87.0605276970375</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>1.1590747186031201</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>2.1681712850219501</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>87.0605276970375</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>1.43586533970293</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>2.6535620367983799</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>84.805772757728306</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="5">
         <v>0.39063257355123837</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="5">
         <v>0.40955884715556123</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
         <v>0.12928737491955822</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="5">
         <v>0.17468837105383783</v>
       </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10">
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
         <v>0.13203817455258654</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="5">
         <v>0.17694140882128756</v>
       </c>
     </row>
@@ -4316,51 +4305,51 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>6.8653513094502197</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>8.74198029919134</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>27.334784560229501</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.16954432798990099</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.21588890478003001</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>27.334784560229501</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0.20483007903151301</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>0.26026814325270697</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>27.065392194016901</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="5">
         <v>1.0059860332521384E-2</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="5">
         <v>7.1796737645604056E-3</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
         <v>1.8911585893903453E-2</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="5">
         <v>1.7394050629278925E-2</v>
       </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5">
         <v>1.8835603159261787E-2</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="5">
         <v>1.7354865384642881E-2</v>
       </c>
     </row>
@@ -4368,51 +4357,51 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1.4022375</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>1.702213</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>21.3926314194279</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>2.3045468478260899E-2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>2.7975500608695601E-2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>21.3926314194279</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="8">
         <v>2.7650527268791299E-2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="8">
         <v>3.3582102992226803E-2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>21.451944354530799</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="5">
         <v>2.0547110799131988E-3</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="5">
         <v>1.3980052115793687E-3</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
         <v>2.5705746795483225E-3</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="5">
         <v>2.253970737694374E-3</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10">
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
         <v>2.5426654192677073E-3</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="5">
         <v>2.2392785743179785E-3</v>
       </c>
     </row>
@@ -4420,80 +4409,80 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>49.004541000000003</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>56.372992000000004</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>15.036261639508099</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>1.225113525</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>1.4093248</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>15.036261639508099</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>1.4863731951726</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>1.7072615076711</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>14.8608918147807</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="5">
         <v>7.1806789761905979E-2</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="5">
         <v>4.6298398971410783E-2</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
         <v>0.13665358158841151</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="5">
         <v>0.1135485260313663</v>
       </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10">
+      <c r="S20" s="5"/>
+      <c r="T20" s="5">
         <v>0.13668273616458343</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="5">
         <v>0.11384141474911845</v>
       </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>682.44996277493067</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>1217.6013264478167</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>78.416205269744594</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>8.9651036640220205</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>12.411652086181132</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>38.444044277931802</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>10.874622771546052</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>14.996840222282291</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>37.9067627202868</v>
       </c>
     </row>
